--- a/Models Built v1.xlsx
+++ b/Models Built v1.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="WIN.LOSS MODEL" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="58">
   <si>
     <t>HEIGHT_DIFF</t>
   </si>
@@ -50,9 +52,6 @@
     <t>STANCE_DIFF1</t>
   </si>
   <si>
-    <t>WIN.LOSS MODEL</t>
-  </si>
-  <si>
     <t>INTERCEPT_</t>
   </si>
   <si>
@@ -108,16 +107,114 @@
   </si>
   <si>
     <t>WIN METHOD MODEL</t>
+  </si>
+  <si>
+    <t>Decision = 0</t>
+  </si>
+  <si>
+    <t>TKO/KO = 1</t>
+  </si>
+  <si>
+    <t>Submission = 2</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
+    <t>TOTAL_INSECONDS</t>
+  </si>
+  <si>
+    <t>AGE_AT_FIGHT</t>
+  </si>
+  <si>
+    <t>HEIGHT_CM</t>
+  </si>
+  <si>
+    <t>REACH_INCH1</t>
+  </si>
+  <si>
+    <t>TOTAL_AT_FIGHT</t>
+  </si>
+  <si>
+    <t>STRAVG_AT_FIGHT</t>
+  </si>
+  <si>
+    <t>TDAVG_AT_FIGHT</t>
+  </si>
+  <si>
+    <t>SUBAVG_AT_FIGHT</t>
+  </si>
+  <si>
+    <t>PASSAVG_AT_FIGHT</t>
+  </si>
+  <si>
+    <t>,   ,   ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         ,   ,  ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ,   ,  ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ,  ,  </t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Difference of Ages</t>
+  </si>
+  <si>
+    <t>Difference in Height (cm)</t>
+  </si>
+  <si>
+    <t>Difference in Weight (kg)</t>
+  </si>
+  <si>
+    <t>Difference in the number of fights</t>
+  </si>
+  <si>
+    <t>Difference in average strikes per fight</t>
+  </si>
+  <si>
+    <t>Difference in average takedowns per fight</t>
+  </si>
+  <si>
+    <t>Difference in average submissions per fight</t>
+  </si>
+  <si>
+    <t>Difference in average passes per fight</t>
+  </si>
+  <si>
+    <t>Difference in win ratio</t>
+  </si>
+  <si>
+    <t>Difference in Reach (inch)</t>
+  </si>
+  <si>
+    <t>Difference in Stance</t>
+  </si>
+  <si>
+    <t>WIN/NOT WIN MODEL</t>
+  </si>
+  <si>
+    <t>WEIGHT_KG</t>
+  </si>
+  <si>
+    <t>WINRATIO_AT_FIGHT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,8 +269,36 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +317,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -245,14 +376,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -278,27 +485,85 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -575,886 +840,1649 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="I2" sqref="D1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2"/>
-    <col min="4" max="4" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="1.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="2"/>
-    <col min="10" max="10" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="2.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="2"/>
-    <col min="16" max="16" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="36.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="1.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="2.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" style="25" customWidth="1"/>
+    <col min="17" max="17" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C1" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+    </row>
+    <row r="2" spans="1:18" ht="7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="I3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="45"/>
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-    </row>
-    <row r="2" spans="1:16" ht="7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="D4" s="26">
+        <v>-3.2153149999999998E-2</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="13">
+        <f>D4</f>
+        <v>-3.2153149999999998E-2</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="26">
+        <v>-1.345258E-2</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="13">
+        <f>J4</f>
+        <v>-1.345258E-2</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="26">
+        <v>-5.4356149999999999E-2</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="13">
+        <f>P4</f>
+        <v>-5.4356149999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="13">
-        <v>-3.2153149999999998E-2</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="13">
-        <f>B4</f>
-        <v>-3.2153149999999998E-2</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="D5" s="27">
+        <v>-7.3305001112084003E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" ref="F5:F15" si="0">D5*E5</f>
+        <v>0.73305001112084001</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="13">
-        <v>-1.345258E-2</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="13">
-        <f>H4</f>
-        <v>-1.345258E-2</v>
-      </c>
-      <c r="M4" s="4" t="s">
+      <c r="J5" s="27">
+        <v>-6.3637392069729806E-2</v>
+      </c>
+      <c r="K5" s="2">
+        <v>-10</v>
+      </c>
+      <c r="L5" s="14">
+        <f t="shared" ref="L5:L15" si="1">J5*K5</f>
+        <v>0.63637392069729803</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="13">
-        <v>-5.4356149999999999E-2</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="13">
-        <f>N4</f>
-        <v>-5.4356149999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="P5" s="27">
+        <v>-2.4364084721175499E-2</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>-10</v>
+      </c>
+      <c r="R5" s="14">
+        <f t="shared" ref="R5:R15" si="2">P5*Q5</f>
+        <v>0.243640847211755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="28">
+        <v>-5.1046198856692503E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="0"/>
+        <v>-0.25523099428346252</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="28">
+        <v>1.33925336129817E-2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>5</v>
+      </c>
+      <c r="L6" s="15">
+        <f t="shared" si="1"/>
+        <v>6.6962668064908498E-2</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="28">
+        <v>-1.07024489434359E-2</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>5</v>
+      </c>
+      <c r="R6" s="15">
+        <f t="shared" si="2"/>
+        <v>-5.3512244717179504E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="14">
-        <v>-7.3305001112084003E-2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-10</v>
-      </c>
-      <c r="D5" s="14">
-        <f>B5*C5</f>
-        <v>0.73305001112084001</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="14">
-        <v>-6.3637392069729806E-2</v>
-      </c>
-      <c r="I5" s="2">
-        <v>-10</v>
-      </c>
-      <c r="J5" s="14">
-        <f>H5*I5</f>
-        <v>0.63637392069729803</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="14">
-        <v>-2.4364084721175499E-2</v>
-      </c>
-      <c r="O5" s="2">
-        <v>-10</v>
-      </c>
-      <c r="P5" s="14">
-        <f>N5*O5</f>
-        <v>0.243640847211755</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="15">
-        <v>-5.1046198856692503E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" s="15">
-        <f t="shared" ref="D6:D15" si="0">B6*C6</f>
-        <v>-0.25523099428346252</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>1.33925336129817E-2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>5</v>
-      </c>
-      <c r="J6" s="15">
-        <f t="shared" ref="J6:J15" si="1">H6*I6</f>
-        <v>6.6962668064908498E-2</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="15">
-        <v>-1.07024489434359E-2</v>
-      </c>
-      <c r="O6" s="2">
-        <v>5</v>
-      </c>
-      <c r="P6" s="15">
-        <f t="shared" ref="P6:P15" si="2">N6*O6</f>
-        <v>-5.3512244717179504E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="15">
+      <c r="D7" s="28">
         <v>4.6981814325535901E-2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="15">
+      <c r="F7" s="15">
         <f t="shared" si="0"/>
         <v>9.3963628651071801E-2</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="15">
+      <c r="I7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="28">
         <v>-1.04084694918232E-2</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>2</v>
       </c>
-      <c r="J7" s="15">
+      <c r="L7" s="15">
         <f t="shared" si="1"/>
         <v>-2.0816938983646401E-2</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="15">
+      <c r="O7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="28">
         <v>1.0992572549614599E-3</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>2</v>
       </c>
-      <c r="P7" s="15">
+      <c r="R7" s="15">
         <f t="shared" si="2"/>
         <v>2.1985145099229198E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="15">
+      <c r="D8" s="28">
         <v>1.4158671094195699E-2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="D8" s="15">
+      <c r="F8" s="15">
         <f t="shared" si="0"/>
         <v>0.14158671094195699</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="15">
+      <c r="J8" s="28">
         <v>3.9549382556792197E-2</v>
       </c>
-      <c r="I8" s="2">
+      <c r="K8" s="2">
         <v>10</v>
       </c>
-      <c r="J8" s="15">
+      <c r="L8" s="15">
         <f t="shared" si="1"/>
         <v>0.39549382556792195</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="15">
+      <c r="P8" s="28">
         <v>5.41375247485188E-3</v>
       </c>
-      <c r="O8" s="2">
+      <c r="Q8" s="2">
         <v>10</v>
       </c>
-      <c r="P8" s="15">
+      <c r="R8" s="15">
         <f t="shared" si="2"/>
         <v>5.4137524748518802E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="15">
+      <c r="D9" s="28">
         <v>6.02572287872097E-3</v>
       </c>
-      <c r="C9" s="2">
+      <c r="E9" s="2">
         <v>6</v>
       </c>
-      <c r="D9" s="15">
+      <c r="F9" s="15">
         <f t="shared" si="0"/>
         <v>3.6154337272325823E-2</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="15">
+      <c r="J9" s="28">
         <v>3.69938992990629E-3</v>
       </c>
-      <c r="I9" s="2">
+      <c r="K9" s="2">
         <v>6</v>
       </c>
-      <c r="J9" s="15">
+      <c r="L9" s="15">
         <f t="shared" si="1"/>
         <v>2.219633957943774E-2</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N9" s="15">
+      <c r="P9" s="28">
         <v>3.7563725756490302E-3</v>
       </c>
-      <c r="O9" s="2">
+      <c r="Q9" s="2">
         <v>6</v>
       </c>
-      <c r="P9" s="15">
+      <c r="R9" s="15">
         <f t="shared" si="2"/>
         <v>2.2538235453894183E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="28">
         <v>1.48246862611215E-2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="E10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="15">
+      <c r="F10" s="15">
         <f t="shared" si="0"/>
         <v>7.4123431305607501E-2</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="15">
+      <c r="I10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="28">
         <v>0.14911553611233599</v>
       </c>
-      <c r="I10" s="2">
+      <c r="K10" s="2">
         <v>5</v>
       </c>
-      <c r="J10" s="15">
+      <c r="L10" s="15">
         <f t="shared" si="1"/>
         <v>0.74557768056167995</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="15">
+      <c r="O10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="28">
         <v>7.9722067196252702E-2</v>
       </c>
-      <c r="O10" s="2">
+      <c r="Q10" s="2">
         <v>5</v>
       </c>
-      <c r="P10" s="15">
+      <c r="R10" s="15">
         <f t="shared" si="2"/>
         <v>0.3986103359812635</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="28">
         <v>-2.58031098335759E-2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="E11" s="2">
         <v>2</v>
       </c>
-      <c r="D11" s="15">
+      <c r="F11" s="15">
         <f t="shared" si="0"/>
         <v>-5.1606219667151801E-2</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="15">
+      <c r="I11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="28">
         <v>1.9050551764238002E-2</v>
       </c>
-      <c r="I11" s="2">
+      <c r="K11" s="2">
         <v>2</v>
       </c>
-      <c r="J11" s="15">
+      <c r="L11" s="15">
         <f t="shared" si="1"/>
         <v>3.8101103528476003E-2</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="15">
+      <c r="O11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="28">
         <v>-0.19020891446350799</v>
       </c>
-      <c r="O11" s="2">
+      <c r="Q11" s="2">
         <v>2</v>
       </c>
-      <c r="P11" s="15">
+      <c r="R11" s="15">
         <f t="shared" si="2"/>
         <v>-0.38041782892701598</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="15">
+      <c r="D12" s="28">
         <v>4.7231604566933399E-2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="D12" s="15">
+      <c r="F12" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="15">
+      <c r="J12" s="28">
         <v>1.8402204151852401E-2</v>
       </c>
-      <c r="I12" s="2">
+      <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="J12" s="15">
+      <c r="L12" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="15">
+      <c r="P12" s="28">
         <v>6.7568127045757598E-2</v>
       </c>
-      <c r="O12" s="2">
+      <c r="Q12" s="2">
         <v>0</v>
       </c>
-      <c r="P12" s="15">
+      <c r="R12" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="15">
+      <c r="D13" s="28">
         <v>2.66390877103692E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="E13" s="2">
         <v>5</v>
       </c>
-      <c r="D13" s="15">
+      <c r="F13" s="15">
         <f t="shared" si="0"/>
         <v>0.13319543855184601</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="15">
+      <c r="J13" s="28">
         <v>0.16957186684994</v>
       </c>
-      <c r="I13" s="2">
+      <c r="K13" s="2">
         <v>5</v>
       </c>
-      <c r="J13" s="15">
+      <c r="L13" s="15">
         <f t="shared" si="1"/>
         <v>0.84785933424969995</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="15">
+      <c r="P13" s="28">
         <v>0.47204501916578301</v>
       </c>
-      <c r="O13" s="2">
+      <c r="Q13" s="2">
         <v>5</v>
       </c>
-      <c r="P13" s="15">
+      <c r="R13" s="15">
         <f t="shared" si="2"/>
         <v>2.3602250958289153</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="15">
+      <c r="D14" s="28">
         <v>1.5691426641359099E-2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="E14" s="2">
         <v>2</v>
       </c>
-      <c r="D14" s="15">
+      <c r="F14" s="15">
         <f t="shared" si="0"/>
         <v>3.1382853282718198E-2</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="15">
+      <c r="J14" s="28">
         <v>2.7256013148310099E-2</v>
       </c>
-      <c r="I14" s="2">
+      <c r="K14" s="2">
         <v>2</v>
       </c>
-      <c r="J14" s="15">
+      <c r="L14" s="15">
         <f t="shared" si="1"/>
         <v>5.4512026296620199E-2</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="15">
+      <c r="P14" s="28">
         <v>7.4537917114038899E-2</v>
       </c>
-      <c r="O14" s="2">
+      <c r="Q14" s="2">
         <v>2</v>
       </c>
-      <c r="P14" s="15">
+      <c r="R14" s="15">
         <f t="shared" si="2"/>
         <v>0.1490758342280778</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="15">
+      <c r="D15" s="39">
         <v>-8.9126859909273604E-2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="D15" s="15">
+      <c r="F15" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="I15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="15">
+      <c r="J15" s="39">
         <v>-5.4562444408390497E-2</v>
       </c>
-      <c r="I15" s="2">
+      <c r="K15" s="2">
         <v>0</v>
       </c>
-      <c r="J15" s="15">
+      <c r="L15" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="O15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="N15" s="15">
+      <c r="P15" s="39">
         <v>3.9518495398668502E-2</v>
       </c>
-      <c r="O15" s="2">
+      <c r="Q15" s="2">
         <v>0</v>
       </c>
-      <c r="P15" s="15">
+      <c r="R15" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6" t="s">
+    <row r="16" spans="1:18" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="4"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="16">
+        <f>SUM(F4:F15)</f>
+        <v>0.90446604717575196</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="16">
+        <f>SUM(L4:L15)</f>
+        <v>2.772807379562396</v>
+      </c>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="16">
+        <f>SUM(R4:R15)</f>
+        <v>2.742140164318152</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="4"/>
+      <c r="E17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="16">
+        <f>EXP(F16)</f>
+        <v>2.4706123803439364</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="16">
+        <f>EXP(L16)</f>
+        <v>16.003498899677915</v>
+      </c>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17" s="16">
+        <f>EXP(R16)</f>
+        <v>15.520165282099081</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="4"/>
+      <c r="E18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="16">
-        <f>SUM(D4:D15)</f>
-        <v>0.90446604717575196</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18" t="s">
+      <c r="F18" s="16">
+        <f>F17/(1+F17)</f>
+        <v>0.71186641133894057</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="16">
-        <f>SUM(J4:J15)</f>
-        <v>2.772807379562396</v>
-      </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="18" t="s">
+      <c r="L18" s="16">
+        <f>L17/(1+L17)</f>
+        <v>0.94118857501623143</v>
+      </c>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="P16" s="16">
-        <f>SUM(P4:P15)</f>
-        <v>2.742140164318152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="C17" s="6" t="s">
+      <c r="R18" s="16">
+        <f>R17/(1+R17)</f>
+        <v>0.93946791797031359</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" ht="8" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="16">
-        <f>EXP(D16)</f>
-        <v>2.4706123803439364</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="18" t="s">
+      <c r="I20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="16">
-        <f>EXP(J16)</f>
-        <v>16.003498899677915</v>
-      </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="18" t="s">
+      <c r="O20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P17" s="16">
-        <f>EXP(P16)</f>
-        <v>15.520165282099081</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="C18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="16">
-        <f>D17/(1+D17)</f>
-        <v>0.71186641133894057</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="16">
-        <f>J17/(1+J17)</f>
-        <v>0.94118857501623143</v>
-      </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="P18" s="16">
-        <f>P17/(1+P17)</f>
-        <v>0.93946791797031359</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="8" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C21" s="11">
+        <v>89</v>
+      </c>
+      <c r="D21" s="7">
+        <v>51</v>
+      </c>
+      <c r="I21" s="11">
+        <v>201</v>
+      </c>
+      <c r="J21" s="7">
+        <v>123</v>
+      </c>
+      <c r="O21" s="11">
+        <v>186</v>
+      </c>
+      <c r="P21" s="7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C22" s="12">
+        <v>59</v>
+      </c>
+      <c r="D22" s="8">
+        <v>72</v>
+      </c>
+      <c r="I22" s="12">
+        <v>136</v>
+      </c>
+      <c r="J22" s="8">
+        <v>184</v>
+      </c>
+      <c r="O22" s="12">
+        <v>128</v>
+      </c>
+      <c r="P22" s="8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C24" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
-        <v>89</v>
-      </c>
-      <c r="B21" s="7">
-        <v>51</v>
-      </c>
-      <c r="G21" s="11">
-        <v>201</v>
-      </c>
-      <c r="H21" s="7">
-        <v>123</v>
-      </c>
-      <c r="M21" s="11">
-        <v>186</v>
-      </c>
-      <c r="N21" s="7">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
-        <v>59</v>
-      </c>
-      <c r="B22" s="8">
-        <v>72</v>
-      </c>
-      <c r="G22" s="12">
-        <v>136</v>
-      </c>
-      <c r="H22" s="8">
-        <v>184</v>
-      </c>
-      <c r="M22" s="12">
-        <v>128</v>
-      </c>
-      <c r="N22" s="8">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="9">
-        <f>(A21+B22)/SUM(A21:B22)</f>
+      <c r="D24" s="41">
+        <f>(C21+D22)/SUM(C21:D22)</f>
         <v>0.59409594095940954</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="9">
-        <f>(G21+H22)/SUM(G21:H22)</f>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="41">
+        <f>(I21+J22)/SUM(I21:J22)</f>
         <v>0.59782608695652173</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
-      <c r="M24" s="10" t="s">
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="41">
+        <f>(O21+P22)/SUM(O21:P22)</f>
+        <v>0.60420315236427324</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="9">
-        <f>(M21+N22)/SUM(M21:N22)</f>
-        <v>0.60420315236427324</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="9">
-        <f>B22/SUM(A22:B22)</f>
+      <c r="D25" s="9">
+        <f>D22/SUM(C22:D22)</f>
         <v>0.54961832061068705</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="9">
-        <f>H22/SUM(G22:H22)</f>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="9">
+        <f>J22/SUM(I22:J22)</f>
         <v>0.57499999999999996</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
-      <c r="M25" s="10" t="s">
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="9">
+        <f>P22/SUM(O22:P22)</f>
+        <v>0.55400696864111498</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N25" s="9">
-        <f>N22/SUM(M22:N22)</f>
-        <v>0.55400696864111498</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="9">
-        <f>A21/SUM(A21:B21)</f>
+      <c r="D26" s="9">
+        <f>C21/SUM(C21:D21)</f>
         <v>0.63571428571428568</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="9">
-        <f>G21/SUM(G21:H21)</f>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="9">
+        <f>I21/SUM(I21:J21)</f>
         <v>0.62037037037037035</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
-      <c r="M26" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N26" s="9">
-        <f>M21/SUM(M21:N21)</f>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="9">
+        <f>O21/SUM(O21:P21)</f>
         <v>0.65492957746478875</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-    </row>
-    <row r="30" spans="1:16" ht="8" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A29:P29"/>
+    <mergeCell ref="C1:R1"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+    </row>
+    <row r="2" spans="1:20" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="47">
+        <v>0.262903</v>
+      </c>
+      <c r="D4" s="47">
+        <v>0.33273999999999998</v>
+      </c>
+      <c r="E4" s="2">
+        <f>C4*$G4</f>
+        <v>2.6290300000000002</v>
+      </c>
+      <c r="F4" s="2">
+        <f>D4*$G4</f>
+        <v>3.3273999999999999</v>
+      </c>
+      <c r="G4" s="19">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="47">
+        <v>-1.4775E-2</v>
+      </c>
+      <c r="D5" s="47">
+        <v>-1.2414E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <f>C5*$G5</f>
+        <v>-8.8650000000000002</v>
+      </c>
+      <c r="F5" s="2">
+        <f>D5*$G5</f>
+        <v>-7.4483999999999995</v>
+      </c>
+      <c r="G5" s="19">
+        <v>600</v>
+      </c>
+      <c r="T5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="47">
+        <v>-5.0865E-2</v>
+      </c>
+      <c r="D6" s="47">
+        <v>-0.111388</v>
+      </c>
+      <c r="E6" s="2">
+        <f>C6*$G6</f>
+        <v>-1.271625</v>
+      </c>
+      <c r="F6" s="2">
+        <f>D6*$G6</f>
+        <v>-2.7847</v>
+      </c>
+      <c r="G6" s="19">
+        <v>25</v>
+      </c>
+      <c r="T6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="47">
+        <v>-7.7072000000000002E-2</v>
+      </c>
+      <c r="D7" s="47">
+        <v>3.6852999999999997E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f>C7*$G7</f>
+        <v>-14.258319999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <f>D7*$G7</f>
+        <v>6.817804999999999</v>
+      </c>
+      <c r="G7" s="19">
+        <v>185</v>
+      </c>
+      <c r="T7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="47">
+        <v>-0.129136</v>
+      </c>
+      <c r="D8" s="47">
+        <v>-0.17799000000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <f>C8*$G8</f>
+        <v>-9.6852</v>
+      </c>
+      <c r="F8" s="2">
+        <f>D8*$G8</f>
+        <v>-13.349250000000001</v>
+      </c>
+      <c r="G8" s="19">
+        <v>75</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="T8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="47">
+        <v>0.44271199999999999</v>
+      </c>
+      <c r="D9" s="47">
+        <v>0.21315300000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <f>C9*$G9</f>
+        <v>30.989840000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <f>D9*$G9</f>
+        <v>14.920710000000001</v>
+      </c>
+      <c r="G9" s="19">
+        <v>70</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="T9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="47">
+        <v>-4.2381000000000002E-2</v>
+      </c>
+      <c r="D10" s="47">
+        <v>-4.4169999999999999E-3</v>
+      </c>
+      <c r="E10" s="2">
+        <f>C10*$G10</f>
+        <v>-0.42381000000000002</v>
+      </c>
+      <c r="F10" s="2">
+        <f>D10*$G10</f>
+        <v>-4.4170000000000001E-2</v>
+      </c>
+      <c r="G10" s="19">
+        <v>10</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="T10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="47">
+        <v>0.82179800000000003</v>
+      </c>
+      <c r="D11" s="47">
+        <v>-1.1539090000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <f>C11*$G11</f>
+        <v>0.65743840000000009</v>
+      </c>
+      <c r="F11" s="2">
+        <f>D11*$G11</f>
+        <v>-0.92312720000000015</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="T11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="47">
+        <v>2.7498999999999999E-2</v>
+      </c>
+      <c r="D12" s="47">
+        <v>-4.1460000000000004E-3</v>
+      </c>
+      <c r="E12" s="2">
+        <f>C12*$G12</f>
+        <v>5.4997999999999998E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <f>D12*$G12</f>
+        <v>-8.2920000000000008E-3</v>
+      </c>
+      <c r="G12" s="19">
+        <v>2</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="T12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="47">
+        <v>3.0228999999999999E-2</v>
+      </c>
+      <c r="D13" s="47">
+        <v>0.56693099999999996</v>
+      </c>
+      <c r="E13" s="2">
+        <f>C13*$G13</f>
+        <v>6.0457999999999998E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <f>D13*$G13</f>
+        <v>1.1338619999999999</v>
+      </c>
+      <c r="G13" s="19">
+        <v>2</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="T13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="47">
+        <v>-0.56666099999999997</v>
+      </c>
+      <c r="D14" s="47">
+        <v>0.45815899999999998</v>
+      </c>
+      <c r="E14" s="2">
+        <f>C14*$G14</f>
+        <v>-1.1899880999999999</v>
+      </c>
+      <c r="F14" s="2">
+        <f>D14*$G14</f>
+        <v>0.96213389999999999</v>
+      </c>
+      <c r="G14" s="19">
+        <v>2.1</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="T14">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="47">
+        <v>-0.167043</v>
+      </c>
+      <c r="D15" s="47">
+        <v>-0.16458100000000001</v>
+      </c>
+      <c r="E15" s="2">
+        <f>C15*$G15</f>
+        <v>-0.167043</v>
+      </c>
+      <c r="F15" s="2">
+        <f>D15*$G15</f>
+        <v>-0.16458100000000001</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="T15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="47">
+        <v>-5.5160000000000001E-2</v>
+      </c>
+      <c r="D16" s="47">
+        <v>6.4238000000000003E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <f>C16*$G16</f>
+        <v>0.16548000000000002</v>
+      </c>
+      <c r="F16" s="2">
+        <f>D16*$G16</f>
+        <v>-0.192714</v>
+      </c>
+      <c r="G16" s="19">
+        <v>-3</v>
+      </c>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="47">
+        <v>4.4238E-2</v>
+      </c>
+      <c r="D17" s="47">
+        <v>-5.8666000000000003E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <f>C17*$G17</f>
+        <v>0.44238</v>
+      </c>
+      <c r="F17" s="2">
+        <f>D17*$G17</f>
+        <v>-0.58666000000000007</v>
+      </c>
+      <c r="G17" s="19">
+        <v>10</v>
+      </c>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="47">
+        <v>0.15251999999999999</v>
+      </c>
+      <c r="D18" s="47">
+        <v>0.14875099999999999</v>
+      </c>
+      <c r="E18" s="2">
+        <f>C18*$G18</f>
+        <v>0.30503999999999998</v>
+      </c>
+      <c r="F18" s="2">
+        <f>D18*$G18</f>
+        <v>0.29750199999999999</v>
+      </c>
+      <c r="G18" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="47">
+        <v>2.4802000000000001E-2</v>
+      </c>
+      <c r="D19" s="47">
+        <v>5.7812000000000002E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f>C19*$G19</f>
+        <v>0.12401000000000001</v>
+      </c>
+      <c r="F19" s="2">
+        <f>D19*$G19</f>
+        <v>0.28905999999999998</v>
+      </c>
+      <c r="G19" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="47">
+        <v>4.9109999999999996E-3</v>
+      </c>
+      <c r="D20" s="47">
+        <v>5.5510000000000004E-3</v>
+      </c>
+      <c r="E20" s="2">
+        <f>C20*$G20</f>
+        <v>4.9109999999999996E-3</v>
+      </c>
+      <c r="F20" s="2">
+        <f>D20*$G20</f>
+        <v>5.5510000000000004E-3</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="47">
+        <v>-5.4900000000000001E-3</v>
+      </c>
+      <c r="D21" s="47">
+        <v>-0.15749299999999999</v>
+      </c>
+      <c r="E21" s="2">
+        <f>C21*$G21</f>
+        <v>-5.4900000000000001E-3</v>
+      </c>
+      <c r="F21" s="2">
+        <f>D21*$G21</f>
+        <v>-0.15749299999999999</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="47">
+        <v>0.39033499999999999</v>
+      </c>
+      <c r="D22" s="47">
+        <v>-5.8658000000000002E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <f>C22*$G22</f>
+        <v>0.39033499999999999</v>
+      </c>
+      <c r="F22" s="2">
+        <f>D22*$G22</f>
+        <v>-5.8658000000000002E-2</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="47">
+        <v>0.16664200000000001</v>
+      </c>
+      <c r="D23" s="47">
+        <v>0.221194</v>
+      </c>
+      <c r="E23" s="2">
+        <f>C23*$G23</f>
+        <v>0.16664200000000001</v>
+      </c>
+      <c r="F23" s="2">
+        <f>D23*$G23</f>
+        <v>0.221194</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="47">
+        <v>-2.3924430000000001</v>
+      </c>
+      <c r="D24" s="47">
+        <v>-0.58554600000000001</v>
+      </c>
+      <c r="E24" s="2">
+        <f>C24*$G24</f>
+        <v>-0.95697720000000008</v>
+      </c>
+      <c r="F24" s="2">
+        <f>D24*$G24</f>
+        <v>-0.23421840000000002</v>
+      </c>
+      <c r="G24" s="19">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="47">
+        <v>-0.341368</v>
+      </c>
+      <c r="D25" s="47">
+        <v>-0.103744</v>
+      </c>
+      <c r="E25" s="2">
+        <f>C25*$G25</f>
+        <v>-3.4136800000000003</v>
+      </c>
+      <c r="F25" s="2">
+        <f>D25*$G25</f>
+        <v>-1.0374400000000001</v>
+      </c>
+      <c r="G25" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E26" s="2">
+        <f>SUM(E4:E25)</f>
+        <v>-4.2465709000000009</v>
+      </c>
+      <c r="F26" s="2">
+        <f>SUM(F4:F25)</f>
+        <v>0.98551429999999973</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E27" s="2">
+        <f>EXP(E26)</f>
+        <v>1.4313231354053721E-2</v>
+      </c>
+      <c r="F27" s="2">
+        <f>EXP(F26)</f>
+        <v>2.6791894372805607</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <f>1/(1+E27+F27)</f>
+        <v>0.27074570934848474</v>
+      </c>
+      <c r="C29">
+        <f>E27*B29</f>
+        <v>3.8752459760222477E-3</v>
+      </c>
+      <c r="D29">
+        <f>B29*F27</f>
+        <v>0.72537904467549308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C33" s="24"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="22"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:R1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A2:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="21">
+        <v>-0.244246186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <v>1.18713671E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="21">
+        <v>6.9274884199999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>-6.7149196499999994E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>0.112449333</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>-6.8205635900000006E-2</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>1.0940697900000001E-2</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>0.26526054799999998</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="21">
+        <v>-1.1050095100000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
+        <v>-0.34928186900000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="21">
+        <v>-0.18646513200000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="21">
+        <v>0.34346576099999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Models Built v1.xlsx
+++ b/Models Built v1.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="WIN.LOSS MODEL" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="WIN.TYPE MODEL" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -843,7 +843,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="I2" sqref="D1:I1048576"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1710,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Models Built v1.xlsx
+++ b/Models Built v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13500" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WIN.LOSS MODEL" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="58">
   <si>
     <t>HEIGHT_DIFF</t>
   </si>
@@ -148,18 +148,6 @@
     <t>PASSAVG_AT_FIGHT</t>
   </si>
   <si>
-    <t>,   ,   ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         ,   ,  ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ,   ,  ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ,  ,  </t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -203,6 +191,18 @@
   </si>
   <si>
     <t>WINRATIO_AT_FIGHT</t>
+  </si>
+  <si>
+    <t>Input Vector</t>
+  </si>
+  <si>
+    <t>Prob = 0</t>
+  </si>
+  <si>
+    <t>Prob = 1</t>
+  </si>
+  <si>
+    <t>Prob = 2</t>
   </si>
 </sst>
 </file>
@@ -324,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -448,6 +448,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -459,16 +503,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,7 +541,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -545,6 +585,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,8 +596,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -843,7 +906,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A5" sqref="A5:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -851,25 +914,25 @@
     <col min="1" max="1" width="36.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="1.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="2" customWidth="1"/>
     <col min="7" max="8" width="1.33203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" style="25" customWidth="1"/>
-    <col min="11" max="11" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" style="2" customWidth="1"/>
     <col min="13" max="14" width="2.33203125" style="2" customWidth="1"/>
     <col min="15" max="15" width="14.1640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" style="25" customWidth="1"/>
-    <col min="17" max="17" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="22.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" style="23" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" style="2" customWidth="1"/>
     <col min="19" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C1" s="43" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D1" s="43"/>
       <c r="E1" s="43"/>
@@ -894,25 +957,25 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="I3" s="32" t="s">
+      <c r="G3" s="33"/>
+      <c r="I3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="34" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -921,10 +984,10 @@
       <c r="L3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="34" t="s">
         <v>13</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -939,620 +1002,620 @@
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="24">
         <v>-3.2153149999999998E-2</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <f>D4</f>
         <v>-3.2153149999999998E-2</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="24">
         <v>-1.345258E-2</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="13">
+      <c r="L4" s="12">
         <f>J4</f>
         <v>-1.345258E-2</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="24">
         <v>-5.4356149999999999E-2</v>
       </c>
       <c r="Q4" s="5"/>
-      <c r="R4" s="13">
+      <c r="R4" s="12">
         <f>P4</f>
         <v>-5.4356149999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="25">
         <v>-7.3305001112084003E-2</v>
       </c>
       <c r="E5" s="2">
         <v>-10</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <f t="shared" ref="F5:F15" si="0">D5*E5</f>
         <v>0.73305001112084001</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="25">
         <v>-6.3637392069729806E-2</v>
       </c>
       <c r="K5" s="2">
         <v>-10</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <f t="shared" ref="L5:L15" si="1">J5*K5</f>
         <v>0.63637392069729803</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="27">
+      <c r="P5" s="25">
         <v>-2.4364084721175499E-2</v>
       </c>
       <c r="Q5" s="2">
         <v>-10</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="13">
         <f t="shared" ref="R5:R15" si="2">P5*Q5</f>
         <v>0.243640847211755</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="26">
         <v>-5.1046198856692503E-2</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <f t="shared" si="0"/>
         <v>-0.25523099428346252</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="26">
         <v>1.33925336129817E-2</v>
       </c>
       <c r="K6" s="2">
         <v>5</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <f t="shared" si="1"/>
         <v>6.6962668064908498E-2</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="26">
         <v>-1.07024489434359E-2</v>
       </c>
       <c r="Q6" s="2">
         <v>5</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="14">
         <f t="shared" si="2"/>
         <v>-5.3512244717179504E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="26">
         <v>4.6981814325535901E-2</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <f t="shared" si="0"/>
         <v>9.3963628651071801E-2</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="26">
         <v>-1.04084694918232E-2</v>
       </c>
       <c r="K7" s="2">
         <v>2</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="14">
         <f t="shared" si="1"/>
         <v>-2.0816938983646401E-2</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="26">
         <v>1.0992572549614599E-3</v>
       </c>
       <c r="Q7" s="2">
         <v>2</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="14">
         <f t="shared" si="2"/>
         <v>2.1985145099229198E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="26">
         <v>1.4158671094195699E-2</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <f t="shared" si="0"/>
         <v>0.14158671094195699</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="26">
         <v>3.9549382556792197E-2</v>
       </c>
       <c r="K8" s="2">
         <v>10</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="14">
         <f t="shared" si="1"/>
         <v>0.39549382556792195</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P8" s="28">
+      <c r="P8" s="26">
         <v>5.41375247485188E-3</v>
       </c>
       <c r="Q8" s="2">
         <v>10</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="14">
         <f t="shared" si="2"/>
         <v>5.4137524748518802E-2</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="26">
         <v>6.02572287872097E-3</v>
       </c>
       <c r="E9" s="2">
         <v>6</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <f t="shared" si="0"/>
         <v>3.6154337272325823E-2</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="26">
         <v>3.69938992990629E-3</v>
       </c>
       <c r="K9" s="2">
         <v>6</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="14">
         <f t="shared" si="1"/>
         <v>2.219633957943774E-2</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="28">
+      <c r="P9" s="26">
         <v>3.7563725756490302E-3</v>
       </c>
       <c r="Q9" s="2">
         <v>6</v>
       </c>
-      <c r="R9" s="15">
+      <c r="R9" s="14">
         <f t="shared" si="2"/>
         <v>2.2538235453894183E-2</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="26">
         <v>1.48246862611215E-2</v>
       </c>
       <c r="E10" s="2">
         <v>5</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <f t="shared" si="0"/>
         <v>7.4123431305607501E-2</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="26">
         <v>0.14911553611233599</v>
       </c>
       <c r="K10" s="2">
         <v>5</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="14">
         <f t="shared" si="1"/>
         <v>0.74557768056167995</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="28">
+      <c r="P10" s="26">
         <v>7.9722067196252702E-2</v>
       </c>
       <c r="Q10" s="2">
         <v>5</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="14">
         <f t="shared" si="2"/>
         <v>0.3986103359812635</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="26">
         <v>-2.58031098335759E-2</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <f t="shared" si="0"/>
         <v>-5.1606219667151801E-2</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="26">
         <v>1.9050551764238002E-2</v>
       </c>
       <c r="K11" s="2">
         <v>2</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="14">
         <f t="shared" si="1"/>
         <v>3.8101103528476003E-2</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="28">
+      <c r="P11" s="26">
         <v>-0.19020891446350799</v>
       </c>
       <c r="Q11" s="2">
         <v>2</v>
       </c>
-      <c r="R11" s="15">
+      <c r="R11" s="14">
         <f t="shared" si="2"/>
         <v>-0.38041782892701598</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="26">
         <v>4.7231604566933399E-2</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="26">
         <v>1.8402204151852401E-2</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="28">
+      <c r="P12" s="26">
         <v>6.7568127045757598E-2</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="26">
         <v>2.66390877103692E-2</v>
       </c>
       <c r="E13" s="2">
         <v>5</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <f t="shared" si="0"/>
         <v>0.13319543855184601</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="26">
         <v>0.16957186684994</v>
       </c>
       <c r="K13" s="2">
         <v>5</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="14">
         <f t="shared" si="1"/>
         <v>0.84785933424969995</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="28">
+      <c r="P13" s="26">
         <v>0.47204501916578301</v>
       </c>
       <c r="Q13" s="2">
         <v>5</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13" s="14">
         <f t="shared" si="2"/>
         <v>2.3602250958289153</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="26">
         <v>1.5691426641359099E-2</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <f t="shared" si="0"/>
         <v>3.1382853282718198E-2</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="26">
         <v>2.7256013148310099E-2</v>
       </c>
       <c r="K14" s="2">
         <v>2</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="14">
         <f t="shared" si="1"/>
         <v>5.4512026296620199E-2</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="28">
+      <c r="P14" s="26">
         <v>7.4537917114038899E-2</v>
       </c>
       <c r="Q14" s="2">
         <v>2</v>
       </c>
-      <c r="R14" s="15">
+      <c r="R14" s="14">
         <f t="shared" si="2"/>
         <v>0.1490758342280778</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="38" t="s">
+      <c r="A15" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="37">
         <v>-8.9126859909273604E-2</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="37">
         <v>-5.4562444408390497E-2</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O15" s="38" t="s">
+      <c r="O15" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="P15" s="39">
+      <c r="P15" s="37">
         <v>3.9518495398668502E-2</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
       </c>
-      <c r="R15" s="15">
+      <c r="R15" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C16" s="4"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="6" t="s">
+      <c r="D16" s="27"/>
+      <c r="E16" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="58">
         <f>SUM(F4:F15)</f>
         <v>0.90446604717575196</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="18" t="s">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="58">
         <f>SUM(L4:L15)</f>
         <v>2.772807379562396</v>
       </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="18" t="s">
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="16">
+      <c r="R16" s="58">
         <f>SUM(R4:R15)</f>
         <v>2.742140164318152</v>
       </c>
     </row>
-    <row r="17" spans="3:18" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="4"/>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="58">
         <f>EXP(F16)</f>
         <v>2.4706123803439364</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="18" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="58">
         <f>EXP(L16)</f>
         <v>16.003498899677915</v>
       </c>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="18" t="s">
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="R17" s="16">
+      <c r="R17" s="58">
         <f>EXP(R16)</f>
         <v>15.520165282099081</v>
       </c>
     </row>
-    <row r="18" spans="3:18" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="4"/>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="60">
         <f>F17/(1+F17)</f>
         <v>0.71186641133894057</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="18" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="60">
         <f>L17/(1+L17)</f>
         <v>0.94118857501623143</v>
       </c>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="18" t="s">
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="R18" s="16">
+      <c r="R18" s="60">
         <f>R17/(1+R17)</f>
         <v>0.93946791797031359</v>
       </c>
     </row>
     <row r="19" spans="3:18" ht="8" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1563,136 +1626,136 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C21" s="11">
+    <row r="21" spans="3:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="10">
         <v>89</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>51</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="10">
         <v>201</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>123</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="10">
         <v>186</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="6">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C22" s="12">
+    <row r="22" spans="3:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="11">
         <v>59</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>72</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="11">
         <v>136</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="7">
         <v>184</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="11">
         <v>128</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="7">
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="3:18" ht="7" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C24" s="40" t="s">
+    <row r="23" spans="3:18" ht="7" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="3:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="39">
         <f>(C21+D22)/SUM(C21:D22)</f>
         <v>0.59409594095940954</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="42" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J24" s="39">
         <f>(I21+J22)/SUM(I21:J22)</f>
         <v>0.59782608695652173</v>
       </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="42" t="s">
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="P24" s="41">
+      <c r="P24" s="39">
         <f>(O21+P22)/SUM(O21:P22)</f>
         <v>0.60420315236427324</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <f>D22/SUM(C22:D22)</f>
         <v>0.54961832061068705</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="8">
         <f>J22/SUM(I22:J22)</f>
         <v>0.57499999999999996</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10" t="s">
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P25" s="8">
         <f>P22/SUM(O22:P22)</f>
         <v>0.55400696864111498</v>
       </c>
     </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <f>C21/SUM(C21:D21)</f>
         <v>0.63571428571428568</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="8">
         <f>I21/SUM(I21:J21)</f>
         <v>0.62037037037037035</v>
       </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10" t="s">
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="P26" s="9">
+      <c r="P26" s="8">
         <f>O21/SUM(O21:P21)</f>
         <v>0.65492957746478875</v>
       </c>
@@ -1708,10 +1771,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1719,10 +1782,15 @@
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
         <v>25</v>
       </c>
@@ -1739,12 +1807,8 @@
       <c r="L1" s="43"/>
       <c r="M1" s="43"/>
       <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-    </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -1754,647 +1818,1470 @@
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="42">
         <v>0.262903</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="42">
         <v>0.33273999999999998</v>
       </c>
-      <c r="E4" s="2">
-        <f>C4*$G4</f>
+      <c r="F4" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42">
+        <v>-6.3954999999999998E-2</v>
+      </c>
+      <c r="I4" s="42">
+        <v>2.8150999999999999E-2</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="41"/>
+      <c r="M4" s="42">
+        <v>9.4797000000000006E-2</v>
+      </c>
+      <c r="N4" s="42">
+        <v>3.0946000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="42">
+        <v>-1.4775E-2</v>
+      </c>
+      <c r="D5" s="42">
+        <v>-1.2414E-2</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="42">
+        <v>-1.9583E-2</v>
+      </c>
+      <c r="I5" s="42">
+        <v>-1.8286E-2</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="42">
+        <v>-1.3233999999999999E-2</v>
+      </c>
+      <c r="N5" s="42">
+        <v>-1.2442E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="42">
+        <v>-5.0865E-2</v>
+      </c>
+      <c r="D6" s="42">
+        <v>-0.111388</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="42">
+        <v>0.10410700000000001</v>
+      </c>
+      <c r="I6" s="42">
+        <v>7.4792999999999998E-2</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="42">
+        <v>0.11390400000000001</v>
+      </c>
+      <c r="N6" s="42">
+        <v>3.9204999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="42">
+        <v>-7.7072000000000002E-2</v>
+      </c>
+      <c r="D7" s="42">
+        <v>3.6852999999999997E-2</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="42">
+        <v>9.4769999999999993E-3</v>
+      </c>
+      <c r="I7" s="42">
+        <v>2.2717999999999999E-2</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="42">
+        <v>3.8781000000000003E-2</v>
+      </c>
+      <c r="N7" s="42">
+        <v>-2.7435000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="42">
+        <v>-0.129136</v>
+      </c>
+      <c r="D8" s="42">
+        <v>-0.17799000000000001</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="42">
+        <v>-5.4670000000000003E-2</v>
+      </c>
+      <c r="I8" s="42">
+        <v>-0.13408400000000001</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="42">
+        <v>1.1438E-2</v>
+      </c>
+      <c r="N8" s="42">
+        <v>-2.5146000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="42">
+        <v>0.44271199999999999</v>
+      </c>
+      <c r="D9" s="42">
+        <v>0.21315300000000001</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="42">
+        <v>0.17347399999999999</v>
+      </c>
+      <c r="I9" s="42">
+        <v>0.22962299999999999</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="42">
+        <v>-3.7208999999999999E-2</v>
+      </c>
+      <c r="N9" s="42">
+        <v>0.191248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="42">
+        <v>-4.2381000000000002E-2</v>
+      </c>
+      <c r="D10" s="42">
+        <v>-4.4169999999999999E-3</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="42">
+        <v>0.12127499999999999</v>
+      </c>
+      <c r="I10" s="42">
+        <v>5.8937999999999997E-2</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="42">
+        <v>-1.9501999999999999E-2</v>
+      </c>
+      <c r="N10" s="42">
+        <v>-3.2016999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="42">
+        <v>0.82179800000000003</v>
+      </c>
+      <c r="D11" s="42">
+        <v>-1.1539090000000001</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="42">
+        <v>0.37016399999999999</v>
+      </c>
+      <c r="I11" s="42">
+        <v>-5.9360000000000003E-3</v>
+      </c>
+      <c r="K11" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="42">
+        <v>0.958758</v>
+      </c>
+      <c r="N11" s="42">
+        <v>1.15133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="42">
+        <v>2.7498999999999999E-2</v>
+      </c>
+      <c r="D12" s="42">
+        <v>-4.1460000000000004E-3</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="42">
+        <v>1.5421000000000001E-2</v>
+      </c>
+      <c r="I12" s="42">
+        <v>-5.6860000000000001E-3</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="42">
+        <v>-5.9410000000000001E-3</v>
+      </c>
+      <c r="N12" s="42">
+        <v>-2.0825E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="42">
+        <v>3.0228999999999999E-2</v>
+      </c>
+      <c r="D13" s="42">
+        <v>0.56693099999999996</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="42">
+        <v>7.7793000000000001E-2</v>
+      </c>
+      <c r="I13" s="42">
+        <v>-1.4710000000000001E-2</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="42">
+        <v>-0.105321</v>
+      </c>
+      <c r="N13" s="42">
+        <v>0.218502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="42">
+        <v>-0.56666099999999997</v>
+      </c>
+      <c r="D14" s="42">
+        <v>0.45815899999999998</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="42">
+        <v>0.117602</v>
+      </c>
+      <c r="I14" s="42">
+        <v>0.102441</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="42">
+        <v>-0.243753</v>
+      </c>
+      <c r="N14" s="42">
+        <v>9.0620999999999993E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="42">
+        <v>-0.167043</v>
+      </c>
+      <c r="D15" s="42">
+        <v>-0.16458100000000001</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="42">
+        <v>-0.1903</v>
+      </c>
+      <c r="I15" s="42">
+        <v>1.8117000000000001E-2</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="42">
+        <v>-0.17854200000000001</v>
+      </c>
+      <c r="N15" s="42">
+        <v>-0.40404099999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="42">
+        <v>-5.5160000000000001E-2</v>
+      </c>
+      <c r="D16" s="42">
+        <v>6.4238000000000003E-2</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="42">
+        <v>-5.4717000000000002E-2</v>
+      </c>
+      <c r="I16" s="42">
+        <v>-2.5786E-2</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="42">
+        <v>-8.1051999999999999E-2</v>
+      </c>
+      <c r="N16" s="42">
+        <v>-7.1362999999999996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="42">
+        <v>4.4238E-2</v>
+      </c>
+      <c r="D17" s="42">
+        <v>-5.8666000000000003E-2</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="42">
+        <v>1.1551000000000001E-2</v>
+      </c>
+      <c r="I17" s="42">
+        <v>4.6530000000000002E-2</v>
+      </c>
+      <c r="K17" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="42">
+        <v>-9.6620000000000004E-3</v>
+      </c>
+      <c r="N17" s="42">
+        <v>3.4658000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="42">
+        <v>0.15251999999999999</v>
+      </c>
+      <c r="D18" s="42">
+        <v>0.14875099999999999</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="42">
+        <v>1.5803999999999999E-2</v>
+      </c>
+      <c r="I18" s="42">
+        <v>3.1814000000000002E-2</v>
+      </c>
+      <c r="K18" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="42">
+        <v>1.2448000000000001E-2</v>
+      </c>
+      <c r="N18" s="42">
+        <v>5.6639999999999998E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="42">
+        <v>2.4802000000000001E-2</v>
+      </c>
+      <c r="D19" s="42">
+        <v>5.7812000000000002E-2</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="42">
+        <v>-3.9761999999999999E-2</v>
+      </c>
+      <c r="I19" s="42">
+        <v>1.1775000000000001E-2</v>
+      </c>
+      <c r="K19" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" s="42">
+        <v>-3.7360000000000002E-3</v>
+      </c>
+      <c r="N19" s="42">
+        <v>2.6868E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="42">
+        <v>4.9109999999999996E-3</v>
+      </c>
+      <c r="D20" s="42">
+        <v>5.5510000000000004E-3</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="42">
+        <v>-1.428E-3</v>
+      </c>
+      <c r="I20" s="42">
+        <v>4.4270000000000004E-3</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="42">
+        <v>7.7380000000000001E-3</v>
+      </c>
+      <c r="N20" s="42">
+        <v>6.4279999999999997E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="42">
+        <v>-5.4900000000000001E-3</v>
+      </c>
+      <c r="D21" s="42">
+        <v>-0.15749299999999999</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="42">
+        <v>-0.14432500000000001</v>
+      </c>
+      <c r="I21" s="42">
+        <v>-0.18020900000000001</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="42">
+        <v>0.31166300000000002</v>
+      </c>
+      <c r="N21" s="42">
+        <v>-9.0217000000000006E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="42">
+        <v>0.39033499999999999</v>
+      </c>
+      <c r="D22" s="42">
+        <v>-5.8658000000000002E-2</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="42">
+        <v>-0.16200700000000001</v>
+      </c>
+      <c r="I22" s="42">
+        <v>0.25976100000000002</v>
+      </c>
+      <c r="K22" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="42">
+        <v>4.1244000000000003E-2</v>
+      </c>
+      <c r="N22" s="42">
+        <v>9.9759E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="42">
+        <v>0.16664200000000001</v>
+      </c>
+      <c r="D23" s="42">
+        <v>0.221194</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="42">
+        <v>5.0360000000000002E-2</v>
+      </c>
+      <c r="I23" s="42">
+        <v>2.5679E-2</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="42">
+        <v>-4.4728999999999998E-2</v>
+      </c>
+      <c r="N23" s="42">
+        <v>0.42302000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="42">
+        <v>-2.3924430000000001</v>
+      </c>
+      <c r="D24" s="42">
+        <v>-0.58554600000000001</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="42">
+        <v>0.425452</v>
+      </c>
+      <c r="I24" s="42">
+        <v>-4.7853E-2</v>
+      </c>
+      <c r="K24" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="42">
+        <v>-0.27346599999999999</v>
+      </c>
+      <c r="N24" s="42">
+        <v>-0.142738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="42">
+        <v>-0.341368</v>
+      </c>
+      <c r="D25" s="42">
+        <v>-0.103744</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="42">
+        <v>-5.8368999999999997E-2</v>
+      </c>
+      <c r="I25" s="42">
+        <v>-0.18294099999999999</v>
+      </c>
+      <c r="K25" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" s="42">
+        <v>5.833E-2</v>
+      </c>
+      <c r="N25" s="42">
+        <v>-1.7749999999999998E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="L28" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="56">
+        <f>1/(1+C55+D55)</f>
+        <v>0.27074570934848474</v>
+      </c>
+      <c r="C29" s="56">
+        <f>C55*B29</f>
+        <v>3.8752459760222477E-3</v>
+      </c>
+      <c r="D29" s="56">
+        <f>B29*D55</f>
+        <v>0.72537904467549308</v>
+      </c>
+      <c r="G29" s="56">
+        <f>1/(1+H55+I55)</f>
+        <v>0.13616483777657781</v>
+      </c>
+      <c r="H29" s="56">
+        <f>H55*G29</f>
+        <v>0.45345198810455545</v>
+      </c>
+      <c r="I29" s="56">
+        <f>G29*I55</f>
+        <v>0.41038317411886666</v>
+      </c>
+      <c r="L29" s="56">
+        <f>1/(1+M55+N55)</f>
+        <v>6.8650094647871793E-2</v>
+      </c>
+      <c r="M29" s="56">
+        <f>M55*L29</f>
+        <v>0.45192589212515055</v>
+      </c>
+      <c r="N29" s="56">
+        <f>L29*N55</f>
+        <v>0.47942401322697764</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+    </row>
+    <row r="32" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="52">
+        <v>10</v>
+      </c>
+      <c r="C32" s="46">
+        <f>C4*$A32</f>
         <v>2.6290300000000002</v>
       </c>
-      <c r="F4" s="2">
-        <f>D4*$G4</f>
+      <c r="D32" s="47">
+        <f>D4*$A32</f>
         <v>3.3273999999999999</v>
       </c>
-      <c r="G4" s="19">
+      <c r="H32" s="46">
+        <f>H4*$A32</f>
+        <v>-0.63954999999999995</v>
+      </c>
+      <c r="I32" s="47">
+        <f>I4*$A32</f>
+        <v>0.28150999999999998</v>
+      </c>
+      <c r="M32" s="46">
+        <f>M4*$A32</f>
+        <v>0.94797000000000009</v>
+      </c>
+      <c r="N32" s="47">
+        <f>N4*$A32</f>
+        <v>0.30946000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="53">
+        <v>600</v>
+      </c>
+      <c r="C33" s="48">
+        <f>C5*$A33</f>
+        <v>-8.8650000000000002</v>
+      </c>
+      <c r="D33" s="49">
+        <f>D5*$A33</f>
+        <v>-7.4483999999999995</v>
+      </c>
+      <c r="H33" s="48">
+        <f>H5*$A33</f>
+        <v>-11.7498</v>
+      </c>
+      <c r="I33" s="49">
+        <f>I5*$A33</f>
+        <v>-10.9716</v>
+      </c>
+      <c r="M33" s="48">
+        <f>M5*$A33</f>
+        <v>-7.9403999999999995</v>
+      </c>
+      <c r="N33" s="49">
+        <f>N5*$A33</f>
+        <v>-7.4652000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="53">
+        <v>25</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="48">
+        <f>C6*$A34</f>
+        <v>-1.271625</v>
+      </c>
+      <c r="D34" s="49">
+        <f>D6*$A34</f>
+        <v>-2.7847</v>
+      </c>
+      <c r="H34" s="48">
+        <f>H6*$A34</f>
+        <v>2.6026750000000001</v>
+      </c>
+      <c r="I34" s="49">
+        <f>I6*$A34</f>
+        <v>1.8698250000000001</v>
+      </c>
+      <c r="M34" s="48">
+        <f>M6*$A34</f>
+        <v>2.8475999999999999</v>
+      </c>
+      <c r="N34" s="49">
+        <f>N6*$A34</f>
+        <v>0.98012499999999991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="53">
+        <v>185</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="48">
+        <f>C7*$A35</f>
+        <v>-14.258319999999999</v>
+      </c>
+      <c r="D35" s="49">
+        <f>D7*$A35</f>
+        <v>6.817804999999999</v>
+      </c>
+      <c r="H35" s="48">
+        <f>H7*$A35</f>
+        <v>1.7532449999999999</v>
+      </c>
+      <c r="I35" s="49">
+        <f>I7*$A35</f>
+        <v>4.2028299999999996</v>
+      </c>
+      <c r="M35" s="48">
+        <f>M7*$A35</f>
+        <v>7.1744850000000007</v>
+      </c>
+      <c r="N35" s="49">
+        <f>N7*$A35</f>
+        <v>-5.075475</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="53">
+        <v>75</v>
+      </c>
+      <c r="C36" s="48">
+        <f>C8*$A36</f>
+        <v>-9.6852</v>
+      </c>
+      <c r="D36" s="49">
+        <f>D8*$A36</f>
+        <v>-13.349250000000001</v>
+      </c>
+      <c r="H36" s="48">
+        <f>H8*$A36</f>
+        <v>-4.10025</v>
+      </c>
+      <c r="I36" s="49">
+        <f>I8*$A36</f>
+        <v>-10.0563</v>
+      </c>
+      <c r="M36" s="48">
+        <f>M8*$A36</f>
+        <v>0.85785</v>
+      </c>
+      <c r="N36" s="49">
+        <f>N8*$A36</f>
+        <v>-1.8859500000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="53">
+        <v>70</v>
+      </c>
+      <c r="C37" s="48">
+        <f>C9*$A37</f>
+        <v>30.989840000000001</v>
+      </c>
+      <c r="D37" s="49">
+        <f>D9*$A37</f>
+        <v>14.920710000000001</v>
+      </c>
+      <c r="H37" s="48">
+        <f>H9*$A37</f>
+        <v>12.143179999999999</v>
+      </c>
+      <c r="I37" s="49">
+        <f>I9*$A37</f>
+        <v>16.073609999999999</v>
+      </c>
+      <c r="M37" s="48">
+        <f>M9*$A37</f>
+        <v>-2.6046299999999998</v>
+      </c>
+      <c r="N37" s="49">
+        <f>N9*$A37</f>
+        <v>13.387359999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="53">
         <v>10</v>
       </c>
-      <c r="T4">
+      <c r="C38" s="48">
+        <f>C10*$A38</f>
+        <v>-0.42381000000000002</v>
+      </c>
+      <c r="D38" s="49">
+        <f>D10*$A38</f>
+        <v>-4.4170000000000001E-2</v>
+      </c>
+      <c r="H38" s="48">
+        <f>H10*$A38</f>
+        <v>1.21275</v>
+      </c>
+      <c r="I38" s="49">
+        <f>I10*$A38</f>
+        <v>0.58938000000000001</v>
+      </c>
+      <c r="M38" s="48">
+        <f>M10*$A38</f>
+        <v>-0.19501999999999997</v>
+      </c>
+      <c r="N38" s="49">
+        <f>N10*$A38</f>
+        <v>-0.32016999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="C39" s="48">
+        <f>C11*$A39</f>
+        <v>0.65743840000000009</v>
+      </c>
+      <c r="D39" s="49">
+        <f>D11*$A39</f>
+        <v>-0.92312720000000015</v>
+      </c>
+      <c r="H39" s="48">
+        <f>H11*$A39</f>
+        <v>0.29613119999999998</v>
+      </c>
+      <c r="I39" s="49">
+        <f>I11*$A39</f>
+        <v>-4.7488000000000009E-3</v>
+      </c>
+      <c r="M39" s="48">
+        <f>M11*$A39</f>
+        <v>0.76700640000000009</v>
+      </c>
+      <c r="N39" s="49">
+        <f>N11*$A39</f>
+        <v>0.92106399999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="53">
+        <v>2</v>
+      </c>
+      <c r="C40" s="48">
+        <f>C12*$A40</f>
+        <v>5.4997999999999998E-2</v>
+      </c>
+      <c r="D40" s="49">
+        <f>D12*$A40</f>
+        <v>-8.2920000000000008E-3</v>
+      </c>
+      <c r="H40" s="48">
+        <f>H12*$A40</f>
+        <v>3.0842000000000001E-2</v>
+      </c>
+      <c r="I40" s="49">
+        <f>I12*$A40</f>
+        <v>-1.1372E-2</v>
+      </c>
+      <c r="M40" s="48">
+        <f>M12*$A40</f>
+        <v>-1.1882E-2</v>
+      </c>
+      <c r="N40" s="49">
+        <f>N12*$A40</f>
+        <v>-4.165E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="53">
+        <v>2</v>
+      </c>
+      <c r="C41" s="48">
+        <f>C13*$A41</f>
+        <v>6.0457999999999998E-2</v>
+      </c>
+      <c r="D41" s="49">
+        <f>D13*$A41</f>
+        <v>1.1338619999999999</v>
+      </c>
+      <c r="H41" s="48">
+        <f>H13*$A41</f>
+        <v>0.155586</v>
+      </c>
+      <c r="I41" s="49">
+        <f>I13*$A41</f>
+        <v>-2.9420000000000002E-2</v>
+      </c>
+      <c r="M41" s="48">
+        <f>M13*$A41</f>
+        <v>-0.210642</v>
+      </c>
+      <c r="N41" s="49">
+        <f>N13*$A41</f>
+        <v>0.437004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="53">
+        <v>2.1</v>
+      </c>
+      <c r="C42" s="48">
+        <f>C14*$A42</f>
+        <v>-1.1899880999999999</v>
+      </c>
+      <c r="D42" s="49">
+        <f>D14*$A42</f>
+        <v>0.96213389999999999</v>
+      </c>
+      <c r="H42" s="48">
+        <f>H14*$A42</f>
+        <v>0.24696419999999999</v>
+      </c>
+      <c r="I42" s="49">
+        <f>I14*$A42</f>
+        <v>0.21512610000000001</v>
+      </c>
+      <c r="M42" s="48">
+        <f>M14*$A42</f>
+        <v>-0.51188129999999998</v>
+      </c>
+      <c r="N42" s="49">
+        <f>N14*$A42</f>
+        <v>0.1903041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="53">
+        <v>1</v>
+      </c>
+      <c r="C43" s="48">
+        <f>C15*$A43</f>
+        <v>-0.167043</v>
+      </c>
+      <c r="D43" s="49">
+        <f>D15*$A43</f>
+        <v>-0.16458100000000001</v>
+      </c>
+      <c r="H43" s="48">
+        <f>H15*$A43</f>
+        <v>-0.1903</v>
+      </c>
+      <c r="I43" s="49">
+        <f>I15*$A43</f>
+        <v>1.8117000000000001E-2</v>
+      </c>
+      <c r="M43" s="48">
+        <f>M15*$A43</f>
+        <v>-0.17854200000000001</v>
+      </c>
+      <c r="N43" s="49">
+        <f>N15*$A43</f>
+        <v>-0.40404099999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="53">
+        <v>-3</v>
+      </c>
+      <c r="C44" s="48">
+        <f>C16*$A44</f>
+        <v>0.16548000000000002</v>
+      </c>
+      <c r="D44" s="49">
+        <f>D16*$A44</f>
+        <v>-0.192714</v>
+      </c>
+      <c r="H44" s="48">
+        <f>H16*$A44</f>
+        <v>0.16415099999999999</v>
+      </c>
+      <c r="I44" s="49">
+        <f>I16*$A44</f>
+        <v>7.7357999999999996E-2</v>
+      </c>
+      <c r="M44" s="48">
+        <f>M16*$A44</f>
+        <v>0.24315599999999998</v>
+      </c>
+      <c r="N44" s="49">
+        <f>N16*$A44</f>
+        <v>0.21408899999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="53">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="47">
-        <v>-1.4775E-2</v>
-      </c>
-      <c r="D5" s="47">
-        <v>-1.2414E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <f>C5*$G5</f>
-        <v>-8.8650000000000002</v>
-      </c>
-      <c r="F5" s="2">
-        <f>D5*$G5</f>
-        <v>-7.4483999999999995</v>
-      </c>
-      <c r="G5" s="19">
-        <v>600</v>
-      </c>
-      <c r="T5">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="47">
-        <v>-5.0865E-2</v>
-      </c>
-      <c r="D6" s="47">
-        <v>-0.111388</v>
-      </c>
-      <c r="E6" s="2">
-        <f>C6*$G6</f>
-        <v>-1.271625</v>
-      </c>
-      <c r="F6" s="2">
-        <f>D6*$G6</f>
-        <v>-2.7847</v>
-      </c>
-      <c r="G6" s="19">
-        <v>25</v>
-      </c>
-      <c r="T6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="47">
-        <v>-7.7072000000000002E-2</v>
-      </c>
-      <c r="D7" s="47">
-        <v>3.6852999999999997E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <f>C7*$G7</f>
-        <v>-14.258319999999999</v>
-      </c>
-      <c r="F7" s="2">
-        <f>D7*$G7</f>
-        <v>6.817804999999999</v>
-      </c>
-      <c r="G7" s="19">
-        <v>185</v>
-      </c>
-      <c r="T7">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="47">
-        <v>-0.129136</v>
-      </c>
-      <c r="D8" s="47">
-        <v>-0.17799000000000001</v>
-      </c>
-      <c r="E8" s="2">
-        <f>C8*$G8</f>
-        <v>-9.6852</v>
-      </c>
-      <c r="F8" s="2">
-        <f>D8*$G8</f>
-        <v>-13.349250000000001</v>
-      </c>
-      <c r="G8" s="19">
-        <v>75</v>
-      </c>
-      <c r="I8" s="19"/>
-      <c r="T8">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="47">
-        <v>0.44271199999999999</v>
-      </c>
-      <c r="D9" s="47">
-        <v>0.21315300000000001</v>
-      </c>
-      <c r="E9" s="2">
-        <f>C9*$G9</f>
-        <v>30.989840000000001</v>
-      </c>
-      <c r="F9" s="2">
-        <f>D9*$G9</f>
-        <v>14.920710000000001</v>
-      </c>
-      <c r="G9" s="19">
-        <v>70</v>
-      </c>
-      <c r="I9" s="19"/>
-      <c r="T9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="47">
-        <v>-4.2381000000000002E-2</v>
-      </c>
-      <c r="D10" s="47">
-        <v>-4.4169999999999999E-3</v>
-      </c>
-      <c r="E10" s="2">
-        <f>C10*$G10</f>
-        <v>-0.42381000000000002</v>
-      </c>
-      <c r="F10" s="2">
-        <f>D10*$G10</f>
-        <v>-4.4170000000000001E-2</v>
-      </c>
-      <c r="G10" s="19">
+      <c r="C45" s="48">
+        <f>C17*$A45</f>
+        <v>0.44238</v>
+      </c>
+      <c r="D45" s="49">
+        <f>D17*$A45</f>
+        <v>-0.58666000000000007</v>
+      </c>
+      <c r="H45" s="48">
+        <f>H17*$A45</f>
+        <v>0.11551</v>
+      </c>
+      <c r="I45" s="49">
+        <f>I17*$A45</f>
+        <v>0.46530000000000005</v>
+      </c>
+      <c r="M45" s="48">
+        <f>M17*$A45</f>
+        <v>-9.6620000000000011E-2</v>
+      </c>
+      <c r="N45" s="49">
+        <f>N17*$A45</f>
+        <v>0.34658</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="53">
+        <v>2</v>
+      </c>
+      <c r="C46" s="48">
+        <f>C18*$A46</f>
+        <v>0.30503999999999998</v>
+      </c>
+      <c r="D46" s="49">
+        <f>D18*$A46</f>
+        <v>0.29750199999999999</v>
+      </c>
+      <c r="H46" s="48">
+        <f>H18*$A46</f>
+        <v>3.1607999999999997E-2</v>
+      </c>
+      <c r="I46" s="49">
+        <f>I18*$A46</f>
+        <v>6.3628000000000004E-2</v>
+      </c>
+      <c r="M46" s="48">
+        <f>M18*$A46</f>
+        <v>2.4896000000000001E-2</v>
+      </c>
+      <c r="N46" s="49">
+        <f>N18*$A46</f>
+        <v>1.1328E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="53">
+        <v>5</v>
+      </c>
+      <c r="C47" s="48">
+        <f>C19*$A47</f>
+        <v>0.12401000000000001</v>
+      </c>
+      <c r="D47" s="49">
+        <f>D19*$A47</f>
+        <v>0.28905999999999998</v>
+      </c>
+      <c r="H47" s="48">
+        <f>H19*$A47</f>
+        <v>-0.19880999999999999</v>
+      </c>
+      <c r="I47" s="49">
+        <f>I19*$A47</f>
+        <v>5.8875000000000004E-2</v>
+      </c>
+      <c r="M47" s="48">
+        <f>M19*$A47</f>
+        <v>-1.8680000000000002E-2</v>
+      </c>
+      <c r="N47" s="49">
+        <f>N19*$A47</f>
+        <v>0.13433999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="53">
+        <v>1</v>
+      </c>
+      <c r="C48" s="48">
+        <f>C20*$A48</f>
+        <v>4.9109999999999996E-3</v>
+      </c>
+      <c r="D48" s="49">
+        <f>D20*$A48</f>
+        <v>5.5510000000000004E-3</v>
+      </c>
+      <c r="H48" s="48">
+        <f>H20*$A48</f>
+        <v>-1.428E-3</v>
+      </c>
+      <c r="I48" s="49">
+        <f>I20*$A48</f>
+        <v>4.4270000000000004E-3</v>
+      </c>
+      <c r="M48" s="48">
+        <f>M20*$A48</f>
+        <v>7.7380000000000001E-3</v>
+      </c>
+      <c r="N48" s="49">
+        <f>N20*$A48</f>
+        <v>6.4279999999999997E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="53">
+        <v>1</v>
+      </c>
+      <c r="C49" s="48">
+        <f>C21*$A49</f>
+        <v>-5.4900000000000001E-3</v>
+      </c>
+      <c r="D49" s="49">
+        <f>D21*$A49</f>
+        <v>-0.15749299999999999</v>
+      </c>
+      <c r="H49" s="48">
+        <f>H21*$A49</f>
+        <v>-0.14432500000000001</v>
+      </c>
+      <c r="I49" s="49">
+        <f>I21*$A49</f>
+        <v>-0.18020900000000001</v>
+      </c>
+      <c r="M49" s="48">
+        <f>M21*$A49</f>
+        <v>0.31166300000000002</v>
+      </c>
+      <c r="N49" s="49">
+        <f>N21*$A49</f>
+        <v>-9.0217000000000006E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="53">
+        <v>1</v>
+      </c>
+      <c r="C50" s="48">
+        <f>C22*$A50</f>
+        <v>0.39033499999999999</v>
+      </c>
+      <c r="D50" s="49">
+        <f>D22*$A50</f>
+        <v>-5.8658000000000002E-2</v>
+      </c>
+      <c r="H50" s="48">
+        <f>H22*$A50</f>
+        <v>-0.16200700000000001</v>
+      </c>
+      <c r="I50" s="49">
+        <f>I22*$A50</f>
+        <v>0.25976100000000002</v>
+      </c>
+      <c r="M50" s="48">
+        <f>M22*$A50</f>
+        <v>4.1244000000000003E-2</v>
+      </c>
+      <c r="N50" s="49">
+        <f>N22*$A50</f>
+        <v>9.9759E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="53">
+        <v>1</v>
+      </c>
+      <c r="C51" s="48">
+        <f>C23*$A51</f>
+        <v>0.16664200000000001</v>
+      </c>
+      <c r="D51" s="49">
+        <f>D23*$A51</f>
+        <v>0.221194</v>
+      </c>
+      <c r="H51" s="48">
+        <f>H23*$A51</f>
+        <v>5.0360000000000002E-2</v>
+      </c>
+      <c r="I51" s="49">
+        <f>I23*$A51</f>
+        <v>2.5679E-2</v>
+      </c>
+      <c r="M51" s="48">
+        <f>M23*$A51</f>
+        <v>-4.4728999999999998E-2</v>
+      </c>
+      <c r="N51" s="49">
+        <f>N23*$A51</f>
+        <v>0.42302000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="53">
+        <v>0.4</v>
+      </c>
+      <c r="C52" s="48">
+        <f>C24*$A52</f>
+        <v>-0.95697720000000008</v>
+      </c>
+      <c r="D52" s="49">
+        <f>D24*$A52</f>
+        <v>-0.23421840000000002</v>
+      </c>
+      <c r="H52" s="48">
+        <f>H24*$A52</f>
+        <v>0.17018080000000002</v>
+      </c>
+      <c r="I52" s="49">
+        <f>I24*$A52</f>
+        <v>-1.9141200000000001E-2</v>
+      </c>
+      <c r="M52" s="48">
+        <f>M24*$A52</f>
+        <v>-0.10938639999999999</v>
+      </c>
+      <c r="N52" s="49">
+        <f>N24*$A52</f>
+        <v>-5.7095200000000006E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="54">
         <v>10</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="T10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="47">
-        <v>0.82179800000000003</v>
-      </c>
-      <c r="D11" s="47">
-        <v>-1.1539090000000001</v>
-      </c>
-      <c r="E11" s="2">
-        <f>C11*$G11</f>
-        <v>0.65743840000000009</v>
-      </c>
-      <c r="F11" s="2">
-        <f>D11*$G11</f>
-        <v>-0.92312720000000015</v>
-      </c>
-      <c r="G11" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="I11" s="19"/>
-      <c r="T11">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="47">
-        <v>2.7498999999999999E-2</v>
-      </c>
-      <c r="D12" s="47">
-        <v>-4.1460000000000004E-3</v>
-      </c>
-      <c r="E12" s="2">
-        <f>C12*$G12</f>
-        <v>5.4997999999999998E-2</v>
-      </c>
-      <c r="F12" s="2">
-        <f>D12*$G12</f>
-        <v>-8.2920000000000008E-3</v>
-      </c>
-      <c r="G12" s="19">
-        <v>2</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="T12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="47">
-        <v>3.0228999999999999E-2</v>
-      </c>
-      <c r="D13" s="47">
-        <v>0.56693099999999996</v>
-      </c>
-      <c r="E13" s="2">
-        <f>C13*$G13</f>
-        <v>6.0457999999999998E-2</v>
-      </c>
-      <c r="F13" s="2">
-        <f>D13*$G13</f>
-        <v>1.1338619999999999</v>
-      </c>
-      <c r="G13" s="19">
-        <v>2</v>
-      </c>
-      <c r="I13" s="19"/>
-      <c r="T13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="47">
-        <v>-0.56666099999999997</v>
-      </c>
-      <c r="D14" s="47">
-        <v>0.45815899999999998</v>
-      </c>
-      <c r="E14" s="2">
-        <f>C14*$G14</f>
-        <v>-1.1899880999999999</v>
-      </c>
-      <c r="F14" s="2">
-        <f>D14*$G14</f>
-        <v>0.96213389999999999</v>
-      </c>
-      <c r="G14" s="19">
-        <v>2.1</v>
-      </c>
-      <c r="I14" s="19"/>
-      <c r="T14">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="47">
-        <v>-0.167043</v>
-      </c>
-      <c r="D15" s="47">
-        <v>-0.16458100000000001</v>
-      </c>
-      <c r="E15" s="2">
-        <f>C15*$G15</f>
-        <v>-0.167043</v>
-      </c>
-      <c r="F15" s="2">
-        <f>D15*$G15</f>
-        <v>-0.16458100000000001</v>
-      </c>
-      <c r="G15" s="19">
-        <v>1</v>
-      </c>
-      <c r="I15" s="19"/>
-      <c r="T15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="47">
-        <v>-5.5160000000000001E-2</v>
-      </c>
-      <c r="D16" s="47">
-        <v>6.4238000000000003E-2</v>
-      </c>
-      <c r="E16" s="2">
-        <f>C16*$G16</f>
-        <v>0.16548000000000002</v>
-      </c>
-      <c r="F16" s="2">
-        <f>D16*$G16</f>
-        <v>-0.192714</v>
-      </c>
-      <c r="G16" s="19">
-        <v>-3</v>
-      </c>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="47">
-        <v>4.4238E-2</v>
-      </c>
-      <c r="D17" s="47">
-        <v>-5.8666000000000003E-2</v>
-      </c>
-      <c r="E17" s="2">
-        <f>C17*$G17</f>
-        <v>0.44238</v>
-      </c>
-      <c r="F17" s="2">
-        <f>D17*$G17</f>
-        <v>-0.58666000000000007</v>
-      </c>
-      <c r="G17" s="19">
-        <v>10</v>
-      </c>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="47">
-        <v>0.15251999999999999</v>
-      </c>
-      <c r="D18" s="47">
-        <v>0.14875099999999999</v>
-      </c>
-      <c r="E18" s="2">
-        <f>C18*$G18</f>
-        <v>0.30503999999999998</v>
-      </c>
-      <c r="F18" s="2">
-        <f>D18*$G18</f>
-        <v>0.29750199999999999</v>
-      </c>
-      <c r="G18" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="47">
-        <v>2.4802000000000001E-2</v>
-      </c>
-      <c r="D19" s="47">
-        <v>5.7812000000000002E-2</v>
-      </c>
-      <c r="E19" s="2">
-        <f>C19*$G19</f>
-        <v>0.12401000000000001</v>
-      </c>
-      <c r="F19" s="2">
-        <f>D19*$G19</f>
-        <v>0.28905999999999998</v>
-      </c>
-      <c r="G19" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="47">
-        <v>4.9109999999999996E-3</v>
-      </c>
-      <c r="D20" s="47">
-        <v>5.5510000000000004E-3</v>
-      </c>
-      <c r="E20" s="2">
-        <f>C20*$G20</f>
-        <v>4.9109999999999996E-3</v>
-      </c>
-      <c r="F20" s="2">
-        <f>D20*$G20</f>
-        <v>5.5510000000000004E-3</v>
-      </c>
-      <c r="G20" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="47">
-        <v>-5.4900000000000001E-3</v>
-      </c>
-      <c r="D21" s="47">
-        <v>-0.15749299999999999</v>
-      </c>
-      <c r="E21" s="2">
-        <f>C21*$G21</f>
-        <v>-5.4900000000000001E-3</v>
-      </c>
-      <c r="F21" s="2">
-        <f>D21*$G21</f>
-        <v>-0.15749299999999999</v>
-      </c>
-      <c r="G21" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="47">
-        <v>0.39033499999999999</v>
-      </c>
-      <c r="D22" s="47">
-        <v>-5.8658000000000002E-2</v>
-      </c>
-      <c r="E22" s="2">
-        <f>C22*$G22</f>
-        <v>0.39033499999999999</v>
-      </c>
-      <c r="F22" s="2">
-        <f>D22*$G22</f>
-        <v>-5.8658000000000002E-2</v>
-      </c>
-      <c r="G22" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="47">
-        <v>0.16664200000000001</v>
-      </c>
-      <c r="D23" s="47">
-        <v>0.221194</v>
-      </c>
-      <c r="E23" s="2">
-        <f>C23*$G23</f>
-        <v>0.16664200000000001</v>
-      </c>
-      <c r="F23" s="2">
-        <f>D23*$G23</f>
-        <v>0.221194</v>
-      </c>
-      <c r="G23" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="47">
-        <v>-2.3924430000000001</v>
-      </c>
-      <c r="D24" s="47">
-        <v>-0.58554600000000001</v>
-      </c>
-      <c r="E24" s="2">
-        <f>C24*$G24</f>
-        <v>-0.95697720000000008</v>
-      </c>
-      <c r="F24" s="2">
-        <f>D24*$G24</f>
-        <v>-0.23421840000000002</v>
-      </c>
-      <c r="G24" s="19">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="47">
-        <v>-0.341368</v>
-      </c>
-      <c r="D25" s="47">
-        <v>-0.103744</v>
-      </c>
-      <c r="E25" s="2">
-        <f>C25*$G25</f>
+      <c r="C53" s="50">
+        <f>C25*$A53</f>
         <v>-3.4136800000000003</v>
       </c>
-      <c r="F25" s="2">
-        <f>D25*$G25</f>
+      <c r="D53" s="51">
+        <f>D25*$A53</f>
         <v>-1.0374400000000001</v>
       </c>
-      <c r="G25" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E26" s="2">
-        <f>SUM(E4:E25)</f>
+      <c r="H53" s="50">
+        <f>H25*$A53</f>
+        <v>-0.58368999999999993</v>
+      </c>
+      <c r="I53" s="51">
+        <f>I25*$A53</f>
+        <v>-1.82941</v>
+      </c>
+      <c r="M53" s="50">
+        <f>M25*$A53</f>
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="N53" s="51">
+        <f>N25*$A53</f>
+        <v>-0.17749999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C54" s="46">
+        <f>SUM(C32:C53)</f>
         <v>-4.2465709000000009</v>
       </c>
-      <c r="F26" s="2">
-        <f>SUM(F4:F25)</f>
+      <c r="D54" s="47">
+        <f>SUM(D32:D53)</f>
         <v>0.98551429999999973</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E27" s="2">
-        <f>EXP(E26)</f>
+      <c r="H54" s="46">
+        <f>SUM(H32:H53)</f>
+        <v>1.2030231999999974</v>
+      </c>
+      <c r="I54" s="47">
+        <f>SUM(I32:I53)</f>
+        <v>1.1032250999999984</v>
+      </c>
+      <c r="M54" s="46">
+        <f>SUM(M32:M53)</f>
+        <v>1.8844957000000013</v>
+      </c>
+      <c r="N54" s="47">
+        <f>SUM(N32:N53)</f>
+        <v>1.943562899999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C55" s="50">
+        <f>EXP(C54)</f>
         <v>1.4313231354053721E-2</v>
       </c>
-      <c r="F27" s="2">
-        <f>EXP(F26)</f>
+      <c r="D55" s="51">
+        <f>EXP(D54)</f>
         <v>2.6791894372805607</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <f>1/(1+E27+F27)</f>
-        <v>0.27074570934848474</v>
-      </c>
-      <c r="C29">
-        <f>E27*B29</f>
-        <v>3.8752459760222477E-3</v>
-      </c>
-      <c r="D29">
-        <f>B29*F27</f>
-        <v>0.72537904467549308</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C33" s="24"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="22"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
+      <c r="H55" s="50">
+        <f>EXP(H54)</f>
+        <v>3.3301694880185528</v>
+      </c>
+      <c r="I55" s="51">
+        <f>EXP(I54)</f>
+        <v>3.0138704001706533</v>
+      </c>
+      <c r="M55" s="50">
+        <f>EXP(M54)</f>
+        <v>6.5830337808450583</v>
+      </c>
+      <c r="N55" s="51">
+        <f>EXP(N54)</f>
+        <v>6.9835885250573382</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2402,84 +3289,181 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C13"/>
+  <dimension ref="A2:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A2:A13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
-        <v>-0.244246186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="21">
-        <v>1.18713671E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
-        <v>6.9274884199999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
-        <v>-6.7149196499999994E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
-        <v>0.112449333</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
-        <v>-6.8205635900000006E-2</v>
-      </c>
-      <c r="C7" s="19" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="19"/>
+      <c r="E4" s="41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="19"/>
+      <c r="E5" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="C6" s="18"/>
+      <c r="E6" s="41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="C7" s="18"/>
+      <c r="E7" s="41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="C8" s="18"/>
+      <c r="E8" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="C9" s="18"/>
+      <c r="E9" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
+      <c r="E10" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="E11" s="41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="E12" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="E13" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E14" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="E15" s="41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
-        <v>1.0940697900000001E-2</v>
-      </c>
-      <c r="C8" s="19" t="s">
+      <c r="E16" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
-        <v>0.26526054799999998</v>
-      </c>
-      <c r="C9" s="19" t="s">
+      <c r="E17" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
-        <v>-1.1050095100000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
-        <v>-0.34928186900000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
-        <v>-0.18646513200000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
-        <v>0.34346576099999998</v>
+      <c r="E18" s="41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="D21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="D22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="D23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="D24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="D25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="35" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
